--- a/testData/WebForm/TC031_WF_RRYN_OneN_TwoN_Test.xlsx
+++ b/testData/WebForm/TC031_WF_RRYN_OneN_TwoN_Test.xlsx
@@ -11,7 +11,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="96">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -300,19 +300,10 @@
     <t>9840051646</t>
   </si>
   <si>
-    <t>9840088881</t>
-  </si>
-  <si>
-    <t>9840067112</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
     <t>9840008763</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
   <si>
     <t>9840040228</t>
@@ -322,7 +313,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -696,92 +686,92 @@
   <dimension ref="A1:BG18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="O2" sqref="O2:O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="52.1796875"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.36328125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="26.08984375"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="27.7265625"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.81640625"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="24.54296875"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="18.7265625"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="23.453125"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="29.54296875"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="20.0"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="9.08984375"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="15.90625"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="14.26953125"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.54296875"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="19" max="19" customWidth="true" width="10.54296875"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="22" max="22" customWidth="true" width="10.54296875"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="25" max="25" customWidth="true" width="10.54296875"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="10.54296875"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="10.54296875"/>
-    <col min="32" max="33" customWidth="true" width="9.6328125"/>
-    <col min="34" max="35" customWidth="true" width="15.26953125"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="11.453125"/>
-    <col min="37" max="37" customWidth="true" width="17.81640625"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="27.36328125"/>
-    <col min="39" max="40" bestFit="true" customWidth="true" width="13.90625"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" width="15.26953125"/>
-    <col min="42" max="43" customWidth="true" width="15.26953125"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" width="11.453125"/>
-    <col min="45" max="46" customWidth="true" width="11.453125"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" width="11.453125"/>
-    <col min="48" max="54" customWidth="true" width="11.453125"/>
-    <col min="55" max="55" bestFit="true" customWidth="true" width="11.81640625"/>
-    <col min="57" max="57" bestFit="true" customWidth="true" width="10.7265625"/>
-    <col min="58" max="58" bestFit="true" customWidth="true" width="10.6328125"/>
+    <col min="1" max="1" width="52.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.54296875" customWidth="1"/>
+    <col min="20" max="20" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.54296875" customWidth="1"/>
+    <col min="23" max="23" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.54296875" customWidth="1"/>
+    <col min="26" max="26" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="9.6328125" customWidth="1"/>
+    <col min="34" max="35" width="15.26953125" customWidth="1"/>
+    <col min="36" max="36" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="17.81640625" customWidth="1"/>
+    <col min="38" max="38" width="27.36328125" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="15.26953125" customWidth="1"/>
+    <col min="44" max="44" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="45" max="46" width="11.453125" customWidth="1"/>
+    <col min="47" max="47" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="48" max="54" width="11.453125" customWidth="1"/>
+    <col min="55" max="55" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="10.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s" s="0">
+      <c r="G1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" t="s" s="0">
+      <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="0">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s" s="0">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s" s="0">
+      <c r="K1" t="s">
         <v>5</v>
       </c>
-      <c r="L1" t="s" s="0">
+      <c r="L1" t="s">
         <v>6</v>
       </c>
       <c r="M1" s="4" t="s">
@@ -790,139 +780,139 @@
       <c r="N1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="O1" t="s" s="0">
+      <c r="O1" t="s">
         <v>18</v>
       </c>
-      <c r="P1" t="s" s="0">
+      <c r="P1" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" t="s" s="0">
+      <c r="Q1" t="s">
         <v>26</v>
       </c>
-      <c r="R1" t="s" s="0">
+      <c r="R1" t="s">
         <v>27</v>
       </c>
-      <c r="S1" t="s" s="0">
+      <c r="S1" t="s">
         <v>23</v>
       </c>
-      <c r="T1" t="s" s="0">
+      <c r="T1" t="s">
         <v>26</v>
       </c>
-      <c r="U1" t="s" s="0">
+      <c r="U1" t="s">
         <v>27</v>
       </c>
-      <c r="V1" t="s" s="0">
+      <c r="V1" t="s">
         <v>24</v>
       </c>
-      <c r="W1" t="s" s="0">
+      <c r="W1" t="s">
         <v>26</v>
       </c>
-      <c r="X1" t="s" s="0">
+      <c r="X1" t="s">
         <v>27</v>
       </c>
-      <c r="Y1" t="s" s="0">
+      <c r="Y1" t="s">
         <v>25</v>
       </c>
-      <c r="Z1" t="s" s="0">
+      <c r="Z1" t="s">
         <v>26</v>
       </c>
-      <c r="AA1" t="s" s="0">
+      <c r="AA1" t="s">
         <v>27</v>
       </c>
-      <c r="AB1" t="s" s="0">
+      <c r="AB1" t="s">
         <v>46</v>
       </c>
-      <c r="AC1" t="s" s="0">
+      <c r="AC1" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" t="s" s="0">
+      <c r="AD1" t="s">
         <v>27</v>
       </c>
-      <c r="AE1" t="s" s="0">
+      <c r="AE1" t="s">
         <v>47</v>
       </c>
-      <c r="AF1" t="s" s="0">
+      <c r="AF1" t="s">
         <v>26</v>
       </c>
-      <c r="AG1" t="s" s="0">
+      <c r="AG1" t="s">
         <v>27</v>
       </c>
-      <c r="AH1" t="s" s="0">
+      <c r="AH1" t="s">
         <v>53</v>
       </c>
-      <c r="AI1" t="s" s="0">
+      <c r="AI1" t="s">
         <v>26</v>
       </c>
-      <c r="AJ1" t="s" s="0">
+      <c r="AJ1" t="s">
         <v>27</v>
       </c>
-      <c r="AK1" t="s" s="0">
+      <c r="AK1" t="s">
         <v>28</v>
       </c>
-      <c r="AL1" t="s" s="0">
+      <c r="AL1" t="s">
         <v>30</v>
       </c>
-      <c r="AM1" t="s" s="0">
+      <c r="AM1" t="s">
         <v>64</v>
       </c>
-      <c r="AN1" t="s" s="0">
+      <c r="AN1" t="s">
         <v>65</v>
       </c>
-      <c r="AO1" t="s" s="0">
+      <c r="AO1" t="s">
         <v>49</v>
       </c>
-      <c r="AP1" t="s" s="0">
+      <c r="AP1" t="s">
         <v>56</v>
       </c>
-      <c r="AQ1" t="s" s="0">
+      <c r="AQ1" t="s">
         <v>26</v>
       </c>
-      <c r="AR1" t="s" s="0">
+      <c r="AR1" t="s">
         <v>27</v>
       </c>
-      <c r="AS1" t="s" s="0">
+      <c r="AS1" t="s">
         <v>59</v>
       </c>
-      <c r="AT1" t="s" s="0">
+      <c r="AT1" t="s">
         <v>26</v>
       </c>
-      <c r="AU1" t="s" s="0">
+      <c r="AU1" t="s">
         <v>27</v>
       </c>
-      <c r="AV1" t="s" s="0">
+      <c r="AV1" t="s">
         <v>60</v>
       </c>
-      <c r="AW1" t="s" s="0">
+      <c r="AW1" t="s">
         <v>26</v>
       </c>
-      <c r="AX1" t="s" s="0">
+      <c r="AX1" t="s">
         <v>27</v>
       </c>
-      <c r="AY1" t="s" s="0">
+      <c r="AY1" t="s">
         <v>61</v>
       </c>
-      <c r="AZ1" t="s" s="0">
+      <c r="AZ1" t="s">
         <v>26</v>
       </c>
-      <c r="BA1" t="s" s="0">
+      <c r="BA1" t="s">
         <v>27</v>
       </c>
-      <c r="BB1" t="s" s="0">
+      <c r="BB1" t="s">
         <v>62</v>
       </c>
-      <c r="BC1" t="s" s="0">
+      <c r="BC1" t="s">
         <v>26</v>
       </c>
-      <c r="BD1" t="s" s="0">
+      <c r="BD1" t="s">
         <v>27</v>
       </c>
-      <c r="BE1" t="s" s="0">
+      <c r="BE1" t="s">
         <v>63</v>
       </c>
-      <c r="BF1" t="s" s="0">
+      <c r="BF1" t="s">
         <v>54</v>
       </c>
-      <c r="BG1" t="s" s="0">
+      <c r="BG1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -936,31 +926,31 @@
       <c r="C2" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s" s="0">
+      <c r="F2" t="s">
         <v>90</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H2" t="s" s="0">
+      <c r="H2" t="s">
         <v>31</v>
       </c>
-      <c r="I2" t="s" s="0">
+      <c r="I2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" t="s" s="0">
+      <c r="J2" t="s">
         <v>55</v>
       </c>
-      <c r="K2" t="s" s="0">
+      <c r="K2" t="s">
         <v>13</v>
       </c>
-      <c r="L2" t="s" s="0">
+      <c r="L2" t="s">
         <v>40</v>
       </c>
       <c r="M2" s="4" t="s">
@@ -969,43 +959,43 @@
       <c r="N2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="O2" t="s" s="0">
-        <v>48</v>
+      <c r="O2" t="s">
+        <v>17</v>
       </c>
       <c r="P2" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="Q2" t="s" s="0">
+      <c r="Q2" t="s">
         <v>17</v>
       </c>
-      <c r="R2" t="s" s="0">
+      <c r="R2" t="s">
         <v>48</v>
       </c>
       <c r="S2" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="T2" t="s" s="0">
-        <v>48</v>
-      </c>
-      <c r="U2" t="s" s="0">
+      <c r="T2" t="s">
+        <v>48</v>
+      </c>
+      <c r="U2" t="s">
         <v>48</v>
       </c>
       <c r="V2" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="W2" t="s" s="0">
+      <c r="W2" t="s">
         <v>17</v>
       </c>
-      <c r="X2" t="s" s="0">
+      <c r="X2" t="s">
         <v>48</v>
       </c>
       <c r="Y2" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="Z2" t="s" s="0">
-        <v>48</v>
-      </c>
-      <c r="AA2" t="s" s="0">
+      <c r="Z2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA2" t="s">
         <v>48</v>
       </c>
       <c r="AB2" s="8" t="s">
@@ -1035,20 +1025,20 @@
       <c r="AJ2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AK2" t="s" s="0">
+      <c r="AK2" t="s">
         <v>29</v>
       </c>
       <c r="AL2" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="AM2" s="0">
+      <c r="AM2">
         <v>0</v>
       </c>
-      <c r="AN2" s="0">
+      <c r="AN2">
         <v>0</v>
       </c>
-      <c r="AO2" t="s" s="0">
-        <v>95</v>
+      <c r="AO2" t="s">
+        <v>93</v>
       </c>
       <c r="AP2" s="8" t="s">
         <v>76</v>
@@ -1109,28 +1099,28 @@
       <c r="C3" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D3" t="s" s="0">
+      <c r="D3" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" t="s" s="0">
-        <v>96</v>
+      <c r="F3" t="s">
+        <v>94</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H3" t="s" s="0">
+      <c r="H3" t="s">
         <v>32</v>
       </c>
-      <c r="I3" t="s" s="0">
+      <c r="I3" t="s">
         <v>10</v>
       </c>
-      <c r="J3" t="s" s="0">
+      <c r="J3" t="s">
         <v>55</v>
       </c>
-      <c r="K3" t="s" s="0">
+      <c r="K3" t="s">
         <v>13</v>
       </c>
       <c r="L3" s="4" t="s">
@@ -1142,7 +1132,7 @@
       <c r="N3" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="O3" t="s" s="0">
+      <c r="O3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1156,7 +1146,7 @@
       <c r="C4" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D4" t="s" s="0">
+      <c r="D4" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -1165,16 +1155,16 @@
       <c r="G4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H4" t="s" s="0">
+      <c r="H4" t="s">
         <v>33</v>
       </c>
-      <c r="I4" t="s" s="0">
+      <c r="I4" t="s">
         <v>10</v>
       </c>
-      <c r="J4" t="s" s="0">
+      <c r="J4" t="s">
         <v>55</v>
       </c>
-      <c r="K4" t="s" s="0">
+      <c r="K4" t="s">
         <v>13</v>
       </c>
       <c r="L4" s="4" t="s">
@@ -1186,8 +1176,8 @@
       <c r="N4" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="O4" t="s" s="0">
-        <v>48</v>
+      <c r="O4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:59" x14ac:dyDescent="0.35">
@@ -1200,28 +1190,28 @@
       <c r="C5" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D5" t="s" s="0">
+      <c r="D5" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F5" t="s" s="0">
-        <v>98</v>
+      <c r="F5" t="s">
+        <v>95</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H5" t="s" s="0">
+      <c r="H5" t="s">
         <v>34</v>
       </c>
-      <c r="I5" t="s" s="0">
+      <c r="I5" t="s">
         <v>10</v>
       </c>
-      <c r="J5" t="s" s="0">
+      <c r="J5" t="s">
         <v>55</v>
       </c>
-      <c r="K5" t="s" s="0">
+      <c r="K5" t="s">
         <v>13</v>
       </c>
       <c r="L5" s="4" t="s">
@@ -1233,7 +1223,7 @@
       <c r="N5" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="O5" t="s" s="0">
+      <c r="O5" t="s">
         <v>17</v>
       </c>
       <c r="AE5" s="4"/>
@@ -1248,7 +1238,7 @@
       <c r="C6" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D6" t="s" s="0">
+      <c r="D6" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -1257,19 +1247,19 @@
       <c r="G6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H6" t="s" s="0">
+      <c r="H6" t="s">
         <v>35</v>
       </c>
-      <c r="I6" t="s" s="0">
+      <c r="I6" t="s">
         <v>10</v>
       </c>
-      <c r="J6" t="s" s="0">
+      <c r="J6" t="s">
         <v>55</v>
       </c>
-      <c r="K6" t="s" s="0">
+      <c r="K6" t="s">
         <v>13</v>
       </c>
-      <c r="L6" t="s" s="0">
+      <c r="L6" t="s">
         <v>41</v>
       </c>
       <c r="M6" s="4" t="s">
@@ -1278,8 +1268,8 @@
       <c r="N6" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="O6" t="s" s="0">
-        <v>48</v>
+      <c r="O6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:59" x14ac:dyDescent="0.35">
@@ -1292,13 +1282,13 @@
       <c r="C7" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D7" t="s" s="0">
+      <c r="D7" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F7" t="s" s="0">
+      <c r="F7" t="s">
         <v>91</v>
       </c>
       <c r="G7" s="1" t="s">
@@ -1307,16 +1297,16 @@
       <c r="H7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I7" t="s" s="0">
+      <c r="I7" t="s">
         <v>10</v>
       </c>
-      <c r="J7" t="s" s="0">
+      <c r="J7" t="s">
         <v>58</v>
       </c>
-      <c r="K7" t="s" s="0">
+      <c r="K7" t="s">
         <v>13</v>
       </c>
-      <c r="L7" t="s" s="0">
+      <c r="L7" t="s">
         <v>40</v>
       </c>
       <c r="M7" s="4" t="s">
@@ -1325,8 +1315,8 @@
       <c r="N7" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="O7" t="s" s="0">
-        <v>48</v>
+      <c r="O7" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:59" x14ac:dyDescent="0.35">
@@ -1339,7 +1329,7 @@
       <c r="C8" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D8" t="s" s="0">
+      <c r="D8" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="3" t="s">
@@ -1348,19 +1338,19 @@
       <c r="G8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H8" t="s" s="0">
+      <c r="H8" t="s">
         <v>36</v>
       </c>
-      <c r="I8" t="s" s="0">
+      <c r="I8" t="s">
         <v>10</v>
       </c>
-      <c r="J8" t="s" s="0">
+      <c r="J8" t="s">
         <v>55</v>
       </c>
-      <c r="K8" t="s" s="0">
+      <c r="K8" t="s">
         <v>13</v>
       </c>
-      <c r="L8" t="s" s="0">
+      <c r="L8" t="s">
         <v>39</v>
       </c>
       <c r="M8" s="4" t="s">
@@ -1369,8 +1359,8 @@
       <c r="N8" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="O8" t="s" s="0">
-        <v>48</v>
+      <c r="O8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:59" x14ac:dyDescent="0.35">
@@ -1383,7 +1373,7 @@
       <c r="C9" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D9" t="s" s="0">
+      <c r="D9" t="s">
         <v>12</v>
       </c>
       <c r="E9" s="3" t="s">
@@ -1392,19 +1382,19 @@
       <c r="G9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H9" t="s" s="0">
+      <c r="H9" t="s">
         <v>37</v>
       </c>
-      <c r="I9" t="s" s="0">
+      <c r="I9" t="s">
         <v>10</v>
       </c>
-      <c r="J9" t="s" s="0">
+      <c r="J9" t="s">
         <v>55</v>
       </c>
-      <c r="K9" t="s" s="0">
+      <c r="K9" t="s">
         <v>13</v>
       </c>
-      <c r="L9" t="s" s="0">
+      <c r="L9" t="s">
         <v>66</v>
       </c>
       <c r="M9" s="4" t="s">
@@ -1413,8 +1403,8 @@
       <c r="N9" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="O9" t="s" s="0">
-        <v>48</v>
+      <c r="O9" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:59" x14ac:dyDescent="0.35">
@@ -1427,7 +1417,7 @@
       <c r="C10" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D10" t="s" s="0">
+      <c r="D10" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -1436,19 +1426,19 @@
       <c r="G10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H10" t="s" s="0">
+      <c r="H10" t="s">
         <v>38</v>
       </c>
-      <c r="I10" t="s" s="0">
+      <c r="I10" t="s">
         <v>10</v>
       </c>
-      <c r="J10" t="s" s="0">
+      <c r="J10" t="s">
         <v>55</v>
       </c>
-      <c r="K10" t="s" s="0">
+      <c r="K10" t="s">
         <v>13</v>
       </c>
-      <c r="L10" t="s" s="0">
+      <c r="L10" t="s">
         <v>39</v>
       </c>
       <c r="M10" s="4" t="s">
@@ -1457,8 +1447,8 @@
       <c r="N10" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="O10" t="s" s="0">
-        <v>48</v>
+      <c r="O10" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:59" x14ac:dyDescent="0.35">
@@ -1471,7 +1461,7 @@
       <c r="C11" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D11" t="s" s="0">
+      <c r="D11" t="s">
         <v>12</v>
       </c>
       <c r="E11" s="3" t="s">
@@ -1480,19 +1470,19 @@
       <c r="G11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H11" t="s" s="0">
+      <c r="H11" t="s">
         <v>81</v>
       </c>
-      <c r="I11" t="s" s="0">
+      <c r="I11" t="s">
         <v>10</v>
       </c>
-      <c r="J11" t="s" s="0">
+      <c r="J11" t="s">
         <v>55</v>
       </c>
-      <c r="K11" t="s" s="0">
+      <c r="K11" t="s">
         <v>13</v>
       </c>
-      <c r="L11" t="s" s="0">
+      <c r="L11" t="s">
         <v>89</v>
       </c>
       <c r="M11" s="4" t="s">
@@ -1501,8 +1491,8 @@
       <c r="N11" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="O11" t="s" s="0">
-        <v>48</v>
+      <c r="O11" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:59" x14ac:dyDescent="0.35">
@@ -1515,7 +1505,7 @@
       <c r="C12" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D12" t="s" s="0">
+      <c r="D12" t="s">
         <v>12</v>
       </c>
       <c r="E12" s="3" t="s">
@@ -1524,19 +1514,19 @@
       <c r="G12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H12" t="s" s="0">
+      <c r="H12" t="s">
         <v>82</v>
       </c>
-      <c r="I12" t="s" s="0">
+      <c r="I12" t="s">
         <v>10</v>
       </c>
-      <c r="J12" t="s" s="0">
+      <c r="J12" t="s">
         <v>55</v>
       </c>
-      <c r="K12" t="s" s="0">
+      <c r="K12" t="s">
         <v>13</v>
       </c>
-      <c r="L12" t="s" s="0">
+      <c r="L12" t="s">
         <v>40</v>
       </c>
       <c r="M12" s="4" t="s">
@@ -1545,8 +1535,8 @@
       <c r="N12" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="O12" t="s" s="0">
-        <v>48</v>
+      <c r="O12" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:59" x14ac:dyDescent="0.35">
@@ -1559,7 +1549,7 @@
       <c r="C13" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D13" t="s" s="0">
+      <c r="D13" t="s">
         <v>12</v>
       </c>
       <c r="E13" s="3" t="s">
@@ -1568,19 +1558,19 @@
       <c r="G13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H13" t="s" s="0">
+      <c r="H13" t="s">
         <v>83</v>
       </c>
-      <c r="I13" t="s" s="0">
+      <c r="I13" t="s">
         <v>10</v>
       </c>
-      <c r="J13" t="s" s="0">
+      <c r="J13" t="s">
         <v>55</v>
       </c>
-      <c r="K13" t="s" s="0">
+      <c r="K13" t="s">
         <v>13</v>
       </c>
-      <c r="L13" t="s" s="0">
+      <c r="L13" t="s">
         <v>66</v>
       </c>
       <c r="M13" s="4" t="s">
@@ -1589,8 +1579,8 @@
       <c r="N13" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="O13" t="s" s="0">
-        <v>48</v>
+      <c r="O13" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:59" x14ac:dyDescent="0.35">
@@ -1603,7 +1593,7 @@
       <c r="C14" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D14" t="s" s="0">
+      <c r="D14" t="s">
         <v>12</v>
       </c>
       <c r="E14" s="3" t="s">
@@ -1612,19 +1602,19 @@
       <c r="G14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H14" t="s" s="0">
+      <c r="H14" t="s">
         <v>84</v>
       </c>
-      <c r="I14" t="s" s="0">
+      <c r="I14" t="s">
         <v>10</v>
       </c>
-      <c r="J14" t="s" s="0">
+      <c r="J14" t="s">
         <v>55</v>
       </c>
-      <c r="K14" t="s" s="0">
+      <c r="K14" t="s">
         <v>13</v>
       </c>
-      <c r="L14" t="s" s="0">
+      <c r="L14" t="s">
         <v>41</v>
       </c>
       <c r="M14" s="4" t="s">
@@ -1633,8 +1623,8 @@
       <c r="N14" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="O14" t="s" s="0">
-        <v>48</v>
+      <c r="O14" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:59" x14ac:dyDescent="0.35">
@@ -1647,31 +1637,31 @@
       <c r="C15" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D15" t="s" s="0">
+      <c r="D15" t="s">
         <v>12</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F15" t="s" s="0">
+      <c r="F15" t="s">
         <v>92</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H15" t="s" s="0">
+      <c r="H15" t="s">
         <v>85</v>
       </c>
-      <c r="I15" t="s" s="0">
+      <c r="I15" t="s">
         <v>10</v>
       </c>
-      <c r="J15" t="s" s="0">
+      <c r="J15" t="s">
         <v>55</v>
       </c>
-      <c r="K15" t="s" s="0">
+      <c r="K15" t="s">
         <v>13</v>
       </c>
-      <c r="L15" t="s" s="0">
+      <c r="L15" t="s">
         <v>39</v>
       </c>
       <c r="M15" s="4" t="s">
@@ -1680,8 +1670,8 @@
       <c r="N15" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="O15" t="s" s="0">
-        <v>48</v>
+      <c r="O15" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:59" x14ac:dyDescent="0.35">
@@ -1694,7 +1684,7 @@
       <c r="C16" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D16" t="s" s="0">
+      <c r="D16" t="s">
         <v>12</v>
       </c>
       <c r="E16" s="3" t="s">
@@ -1703,19 +1693,19 @@
       <c r="G16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H16" t="s" s="0">
+      <c r="H16" t="s">
         <v>86</v>
       </c>
-      <c r="I16" t="s" s="0">
+      <c r="I16" t="s">
         <v>10</v>
       </c>
-      <c r="J16" t="s" s="0">
+      <c r="J16" t="s">
         <v>55</v>
       </c>
-      <c r="K16" t="s" s="0">
+      <c r="K16" t="s">
         <v>13</v>
       </c>
-      <c r="L16" t="s" s="0">
+      <c r="L16" t="s">
         <v>89</v>
       </c>
       <c r="M16" s="4" t="s">
@@ -1724,8 +1714,8 @@
       <c r="N16" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="O16" t="s" s="0">
-        <v>48</v>
+      <c r="O16" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.35">
@@ -1738,7 +1728,7 @@
       <c r="C17" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D17" t="s" s="0">
+      <c r="D17" t="s">
         <v>12</v>
       </c>
       <c r="E17" s="3" t="s">
@@ -1747,19 +1737,19 @@
       <c r="G17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H17" t="s" s="0">
+      <c r="H17" t="s">
         <v>87</v>
       </c>
-      <c r="I17" t="s" s="0">
+      <c r="I17" t="s">
         <v>10</v>
       </c>
-      <c r="J17" t="s" s="0">
+      <c r="J17" t="s">
         <v>55</v>
       </c>
-      <c r="K17" t="s" s="0">
+      <c r="K17" t="s">
         <v>13</v>
       </c>
-      <c r="L17" t="s" s="0">
+      <c r="L17" t="s">
         <v>40</v>
       </c>
       <c r="M17" s="4" t="s">
@@ -1768,8 +1758,8 @@
       <c r="N17" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="O17" t="s" s="0">
-        <v>48</v>
+      <c r="O17" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.35">
@@ -1782,7 +1772,7 @@
       <c r="C18" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D18" t="s" s="0">
+      <c r="D18" t="s">
         <v>12</v>
       </c>
       <c r="E18" s="3" t="s">
@@ -1791,19 +1781,19 @@
       <c r="G18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H18" t="s" s="0">
+      <c r="H18" t="s">
         <v>88</v>
       </c>
-      <c r="I18" t="s" s="0">
+      <c r="I18" t="s">
         <v>10</v>
       </c>
-      <c r="J18" t="s" s="0">
+      <c r="J18" t="s">
         <v>55</v>
       </c>
-      <c r="K18" t="s" s="0">
+      <c r="K18" t="s">
         <v>13</v>
       </c>
-      <c r="L18" t="s" s="0">
+      <c r="L18" t="s">
         <v>66</v>
       </c>
       <c r="M18" s="4" t="s">
@@ -1812,8 +1802,8 @@
       <c r="N18" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="O18" t="s" s="0">
-        <v>48</v>
+      <c r="O18" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/testData/WebForm/TC031_WF_RRYN_OneN_TwoN_Test.xlsx
+++ b/testData/WebForm/TC031_WF_RRYN_OneN_TwoN_Test.xlsx
@@ -11,7 +11,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="114">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -307,12 +307,67 @@
   </si>
   <si>
     <t>9840040228</t>
+  </si>
+  <si>
+    <t>9840018258</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>9840016718</t>
+  </si>
+  <si>
+    <t>9840092052</t>
+  </si>
+  <si>
+    <t>9840078456</t>
+  </si>
+  <si>
+    <t>9840070290</t>
+  </si>
+  <si>
+    <t>9840026573</t>
+  </si>
+  <si>
+    <t>9840075031</t>
+  </si>
+  <si>
+    <t>9840035059</t>
+  </si>
+  <si>
+    <t>9840019442</t>
+  </si>
+  <si>
+    <t>9840004019</t>
+  </si>
+  <si>
+    <t>9840040903</t>
+  </si>
+  <si>
+    <t>9840064219</t>
+  </si>
+  <si>
+    <t>9840009933</t>
+  </si>
+  <si>
+    <t>9840061523</t>
+  </si>
+  <si>
+    <t>9840066966</t>
+  </si>
+  <si>
+    <t>9840002096</t>
+  </si>
+  <si>
+    <t>9840015635</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -691,87 +746,87 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="52.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.54296875" customWidth="1"/>
-    <col min="20" max="20" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.54296875" customWidth="1"/>
-    <col min="23" max="23" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.54296875" customWidth="1"/>
-    <col min="26" max="26" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="9.6328125" customWidth="1"/>
-    <col min="34" max="35" width="15.26953125" customWidth="1"/>
-    <col min="36" max="36" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="17.81640625" customWidth="1"/>
-    <col min="38" max="38" width="27.36328125" bestFit="1" customWidth="1"/>
-    <col min="39" max="40" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="15.26953125" customWidth="1"/>
-    <col min="44" max="44" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="45" max="46" width="11.453125" customWidth="1"/>
-    <col min="47" max="47" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="48" max="54" width="11.453125" customWidth="1"/>
-    <col min="55" max="55" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="52.1796875"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.36328125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="26.08984375"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.7265625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="10.81640625"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="24.54296875"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="18.7265625"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="23.453125"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="29.54296875"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="20.0"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.08984375"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="15.90625"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="14.26953125"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="10.54296875"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="6.1796875"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="7.6328125"/>
+    <col min="19" max="19" customWidth="true" width="10.54296875"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="6.1796875"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="7.6328125"/>
+    <col min="22" max="22" customWidth="true" width="10.54296875"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="6.1796875"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="7.6328125"/>
+    <col min="25" max="25" customWidth="true" width="10.54296875"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="6.1796875"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="7.6328125"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="10.54296875"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="6.1796875"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="7.6328125"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="10.54296875"/>
+    <col min="32" max="33" customWidth="true" width="9.6328125"/>
+    <col min="34" max="35" customWidth="true" width="15.26953125"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="11.453125"/>
+    <col min="37" max="37" customWidth="true" width="17.81640625"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="27.36328125"/>
+    <col min="39" max="40" bestFit="true" customWidth="true" width="13.90625"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" width="15.26953125"/>
+    <col min="42" max="43" customWidth="true" width="15.26953125"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" width="11.453125"/>
+    <col min="45" max="46" customWidth="true" width="11.453125"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="11.453125"/>
+    <col min="48" max="54" customWidth="true" width="11.453125"/>
+    <col min="55" max="55" bestFit="true" customWidth="true" width="11.81640625"/>
+    <col min="57" max="57" bestFit="true" customWidth="true" width="10.7265625"/>
+    <col min="58" max="58" bestFit="true" customWidth="true" width="10.6328125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" t="s" s="0">
         <v>6</v>
       </c>
       <c r="M1" s="4" t="s">
@@ -780,139 +835,139 @@
       <c r="N1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AC1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AD1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AE1" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AF1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AG1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AH1" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AI1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AJ1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AK1" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AL1" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AM1" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AN1" t="s" s="0">
         <v>65</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AO1" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AP1" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AQ1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AR1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AS1" t="s" s="0">
         <v>59</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AT1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AU1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AV1" t="s" s="0">
         <v>60</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AW1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AX1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AY1" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="AZ1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BA1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BB1" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BC1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BD1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BE1" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BF1" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BG1" t="s" s="0">
         <v>19</v>
       </c>
     </row>
@@ -926,31 +981,31 @@
       <c r="C2" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
-        <v>90</v>
+      <c r="F2" t="s" s="0">
+        <v>96</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" t="s" s="0">
         <v>40</v>
       </c>
       <c r="M2" s="4" t="s">
@@ -959,43 +1014,43 @@
       <c r="N2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" t="s" s="0">
         <v>17</v>
       </c>
       <c r="P2" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="R2" t="s">
+      <c r="R2" t="s" s="0">
         <v>48</v>
       </c>
       <c r="S2" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="T2" t="s">
-        <v>48</v>
-      </c>
-      <c r="U2" t="s">
+      <c r="T2" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="U2" t="s" s="0">
         <v>48</v>
       </c>
       <c r="V2" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="W2" t="s">
+      <c r="W2" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="X2" t="s">
+      <c r="X2" t="s" s="0">
         <v>48</v>
       </c>
       <c r="Y2" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="Z2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA2" t="s">
+      <c r="Z2" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="AA2" t="s" s="0">
         <v>48</v>
       </c>
       <c r="AB2" s="8" t="s">
@@ -1025,20 +1080,20 @@
       <c r="AJ2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AK2" t="s" s="0">
         <v>29</v>
       </c>
       <c r="AL2" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="AM2">
+      <c r="AM2" s="0">
         <v>0</v>
       </c>
-      <c r="AN2">
+      <c r="AN2" s="0">
         <v>0</v>
       </c>
-      <c r="AO2" t="s">
-        <v>93</v>
+      <c r="AO2" t="s" s="0">
+        <v>97</v>
       </c>
       <c r="AP2" s="8" t="s">
         <v>76</v>
@@ -1099,28 +1154,28 @@
       <c r="C3" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" t="s">
-        <v>94</v>
+      <c r="F3" t="s" s="0">
+        <v>98</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" t="s" s="0">
         <v>13</v>
       </c>
       <c r="L3" s="4" t="s">
@@ -1132,7 +1187,7 @@
       <c r="N3" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3" t="s" s="0">
         <v>17</v>
       </c>
     </row>
@@ -1146,25 +1201,28 @@
       <c r="C4" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="F4" t="s" s="0">
+        <v>99</v>
+      </c>
       <c r="G4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" t="s" s="0">
         <v>13</v>
       </c>
       <c r="L4" s="4" t="s">
@@ -1176,7 +1234,7 @@
       <c r="N4" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O4" t="s" s="0">
         <v>17</v>
       </c>
     </row>
@@ -1190,28 +1248,28 @@
       <c r="C5" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F5" t="s">
-        <v>95</v>
+      <c r="F5" t="s" s="0">
+        <v>100</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" t="s" s="0">
         <v>13</v>
       </c>
       <c r="L5" s="4" t="s">
@@ -1223,7 +1281,7 @@
       <c r="N5" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="O5" t="s">
+      <c r="O5" t="s" s="0">
         <v>17</v>
       </c>
       <c r="AE5" s="4"/>
@@ -1238,28 +1296,31 @@
       <c r="C6" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="F6" t="s" s="0">
+        <v>101</v>
+      </c>
       <c r="G6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" t="s" s="0">
         <v>41</v>
       </c>
       <c r="M6" s="4" t="s">
@@ -1268,7 +1329,7 @@
       <c r="N6" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="O6" t="s">
+      <c r="O6" t="s" s="0">
         <v>17</v>
       </c>
     </row>
@@ -1282,14 +1343,14 @@
       <c r="C7" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F7" t="s">
-        <v>91</v>
+      <c r="F7" t="s" s="0">
+        <v>102</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>11</v>
@@ -1297,16 +1358,16 @@
       <c r="H7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" t="s" s="0">
         <v>40</v>
       </c>
       <c r="M7" s="4" t="s">
@@ -1315,7 +1376,7 @@
       <c r="N7" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="O7" t="s">
+      <c r="O7" t="s" s="0">
         <v>17</v>
       </c>
     </row>
@@ -1329,28 +1390,31 @@
       <c r="C8" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="F8" t="s" s="0">
+        <v>103</v>
+      </c>
       <c r="G8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" t="s" s="0">
         <v>39</v>
       </c>
       <c r="M8" s="4" t="s">
@@ -1359,7 +1423,7 @@
       <c r="N8" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="O8" t="s">
+      <c r="O8" t="s" s="0">
         <v>17</v>
       </c>
     </row>
@@ -1373,28 +1437,31 @@
       <c r="C9" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="F9" t="s" s="0">
+        <v>104</v>
+      </c>
       <c r="G9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" t="s" s="0">
         <v>66</v>
       </c>
       <c r="M9" s="4" t="s">
@@ -1403,7 +1470,7 @@
       <c r="N9" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="O9" t="s">
+      <c r="O9" t="s" s="0">
         <v>17</v>
       </c>
     </row>
@@ -1417,28 +1484,31 @@
       <c r="C10" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="F10" t="s" s="0">
+        <v>105</v>
+      </c>
       <c r="G10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" t="s" s="0">
         <v>39</v>
       </c>
       <c r="M10" s="4" t="s">
@@ -1447,7 +1517,7 @@
       <c r="N10" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="O10" t="s">
+      <c r="O10" t="s" s="0">
         <v>17</v>
       </c>
     </row>
@@ -1461,28 +1531,31 @@
       <c r="C11" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="F11" t="s" s="0">
+        <v>106</v>
+      </c>
       <c r="G11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" t="s" s="0">
         <v>81</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L11" t="s" s="0">
         <v>89</v>
       </c>
       <c r="M11" s="4" t="s">
@@ -1491,7 +1564,7 @@
       <c r="N11" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="O11" t="s">
+      <c r="O11" t="s" s="0">
         <v>17</v>
       </c>
     </row>
@@ -1505,28 +1578,31 @@
       <c r="C12" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="F12" t="s" s="0">
+        <v>107</v>
+      </c>
       <c r="G12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L12" t="s">
+      <c r="L12" t="s" s="0">
         <v>40</v>
       </c>
       <c r="M12" s="4" t="s">
@@ -1535,7 +1611,7 @@
       <c r="N12" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="O12" t="s">
+      <c r="O12" t="s" s="0">
         <v>17</v>
       </c>
     </row>
@@ -1549,28 +1625,31 @@
       <c r="C13" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="F13" t="s" s="0">
+        <v>108</v>
+      </c>
       <c r="G13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L13" t="s">
+      <c r="L13" t="s" s="0">
         <v>66</v>
       </c>
       <c r="M13" s="4" t="s">
@@ -1579,7 +1658,7 @@
       <c r="N13" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="O13" t="s">
+      <c r="O13" t="s" s="0">
         <v>17</v>
       </c>
     </row>
@@ -1593,28 +1672,31 @@
       <c r="C14" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="F14" t="s" s="0">
+        <v>109</v>
+      </c>
       <c r="G14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" t="s" s="0">
         <v>84</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L14" t="s">
+      <c r="L14" t="s" s="0">
         <v>41</v>
       </c>
       <c r="M14" s="4" t="s">
@@ -1623,7 +1705,7 @@
       <c r="N14" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="O14" t="s">
+      <c r="O14" t="s" s="0">
         <v>17</v>
       </c>
     </row>
@@ -1637,31 +1719,31 @@
       <c r="C15" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F15" t="s">
-        <v>92</v>
+      <c r="F15" t="s" s="0">
+        <v>110</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L15" t="s">
+      <c r="L15" t="s" s="0">
         <v>39</v>
       </c>
       <c r="M15" s="4" t="s">
@@ -1670,7 +1752,7 @@
       <c r="N15" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="O15" t="s">
+      <c r="O15" t="s" s="0">
         <v>17</v>
       </c>
     </row>
@@ -1684,28 +1766,31 @@
       <c r="C16" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="F16" t="s" s="0">
+        <v>111</v>
+      </c>
       <c r="G16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L16" t="s">
+      <c r="L16" t="s" s="0">
         <v>89</v>
       </c>
       <c r="M16" s="4" t="s">
@@ -1714,7 +1799,7 @@
       <c r="N16" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="O16" t="s">
+      <c r="O16" t="s" s="0">
         <v>17</v>
       </c>
     </row>
@@ -1728,28 +1813,31 @@
       <c r="C17" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="F17" t="s" s="0">
+        <v>112</v>
+      </c>
       <c r="G17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K17" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L17" t="s">
+      <c r="L17" t="s" s="0">
         <v>40</v>
       </c>
       <c r="M17" s="4" t="s">
@@ -1758,7 +1846,7 @@
       <c r="N17" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="O17" t="s">
+      <c r="O17" t="s" s="0">
         <v>17</v>
       </c>
     </row>
@@ -1772,28 +1860,31 @@
       <c r="C18" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="F18" t="s" s="0">
+        <v>113</v>
+      </c>
       <c r="G18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" t="s" s="0">
         <v>88</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K18" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L18" t="s">
+      <c r="L18" t="s" s="0">
         <v>66</v>
       </c>
       <c r="M18" s="4" t="s">
@@ -1802,7 +1893,7 @@
       <c r="N18" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="O18" t="s">
+      <c r="O18" t="s" s="0">
         <v>17</v>
       </c>
     </row>

--- a/testData/WebForm/TC031_WF_RRYN_OneN_TwoN_Test.xlsx
+++ b/testData/WebForm/TC031_WF_RRYN_OneN_TwoN_Test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="131">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -361,6 +361,57 @@
   </si>
   <si>
     <t>9840015635</t>
+  </si>
+  <si>
+    <t>9840016305</t>
+  </si>
+  <si>
+    <t>9840063253</t>
+  </si>
+  <si>
+    <t>9840033542</t>
+  </si>
+  <si>
+    <t>9840043851</t>
+  </si>
+  <si>
+    <t>9840016776</t>
+  </si>
+  <si>
+    <t>9840022329</t>
+  </si>
+  <si>
+    <t>9840016150</t>
+  </si>
+  <si>
+    <t>9840048597</t>
+  </si>
+  <si>
+    <t>9840040875</t>
+  </si>
+  <si>
+    <t>9840088141</t>
+  </si>
+  <si>
+    <t>9840058110</t>
+  </si>
+  <si>
+    <t>9840012236</t>
+  </si>
+  <si>
+    <t>9840030817</t>
+  </si>
+  <si>
+    <t>9840024594</t>
+  </si>
+  <si>
+    <t>9840056881</t>
+  </si>
+  <si>
+    <t>9840010581</t>
+  </si>
+  <si>
+    <t>9840019226</t>
   </si>
 </sst>
 </file>
@@ -988,7 +1039,7 @@
         <v>16</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
@@ -1093,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="AO2" t="s" s="0">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AP2" s="8" t="s">
         <v>76</v>
@@ -1161,7 +1212,7 @@
         <v>16</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>11</v>
@@ -1208,7 +1259,7 @@
         <v>16</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>11</v>
@@ -1255,7 +1306,7 @@
         <v>16</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>11</v>
@@ -1303,7 +1354,7 @@
         <v>16</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>11</v>
@@ -1350,7 +1401,7 @@
         <v>16</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>11</v>
@@ -1397,7 +1448,7 @@
         <v>16</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>11</v>
@@ -1444,7 +1495,7 @@
         <v>16</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>11</v>
@@ -1491,7 +1542,7 @@
         <v>16</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>11</v>
@@ -1538,7 +1589,7 @@
         <v>16</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>11</v>
@@ -1585,7 +1636,7 @@
         <v>16</v>
       </c>
       <c r="F12" t="s" s="0">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>11</v>
@@ -1632,7 +1683,7 @@
         <v>16</v>
       </c>
       <c r="F13" t="s" s="0">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>11</v>
@@ -1679,7 +1730,7 @@
         <v>16</v>
       </c>
       <c r="F14" t="s" s="0">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>11</v>
@@ -1726,7 +1777,7 @@
         <v>16</v>
       </c>
       <c r="F15" t="s" s="0">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>11</v>
@@ -1773,7 +1824,7 @@
         <v>16</v>
       </c>
       <c r="F16" t="s" s="0">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>11</v>
@@ -1820,7 +1871,7 @@
         <v>16</v>
       </c>
       <c r="F17" t="s" s="0">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>11</v>
@@ -1867,7 +1918,7 @@
         <v>16</v>
       </c>
       <c r="F18" t="s" s="0">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>11</v>

--- a/testData/WebForm/TC031_WF_RRYN_OneN_TwoN_Test.xlsx
+++ b/testData/WebForm/TC031_WF_RRYN_OneN_TwoN_Test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="111">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -291,127 +291,67 @@
     <t>two</t>
   </si>
   <si>
-    <t>9840031214</t>
-  </si>
-  <si>
-    <t>9840002058</t>
-  </si>
-  <si>
-    <t>9840051646</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
-    <t>9840008763</t>
-  </si>
-  <si>
-    <t>9840040228</t>
-  </si>
-  <si>
-    <t>9840018258</t>
+    <t>9840016305</t>
+  </si>
+  <si>
+    <t>9840063253</t>
+  </si>
+  <si>
+    <t>9840033542</t>
+  </si>
+  <si>
+    <t>9840043851</t>
+  </si>
+  <si>
+    <t>9840016776</t>
+  </si>
+  <si>
+    <t>9840022329</t>
+  </si>
+  <si>
+    <t>9840016150</t>
+  </si>
+  <si>
+    <t>9840048597</t>
+  </si>
+  <si>
+    <t>9840040875</t>
+  </si>
+  <si>
+    <t>9840088141</t>
+  </si>
+  <si>
+    <t>9840058110</t>
+  </si>
+  <si>
+    <t>9840012236</t>
+  </si>
+  <si>
+    <t>9840030817</t>
+  </si>
+  <si>
+    <t>9840024594</t>
+  </si>
+  <si>
+    <t>9840056881</t>
+  </si>
+  <si>
+    <t>9840010581</t>
+  </si>
+  <si>
+    <t>9840019226</t>
+  </si>
+  <si>
+    <t>9840096987</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>9840016718</t>
-  </si>
-  <si>
-    <t>9840092052</t>
-  </si>
-  <si>
-    <t>9840078456</t>
-  </si>
-  <si>
-    <t>9840070290</t>
-  </si>
-  <si>
-    <t>9840026573</t>
-  </si>
-  <si>
-    <t>9840075031</t>
-  </si>
-  <si>
-    <t>9840035059</t>
-  </si>
-  <si>
-    <t>9840019442</t>
-  </si>
-  <si>
-    <t>9840004019</t>
-  </si>
-  <si>
-    <t>9840040903</t>
-  </si>
-  <si>
-    <t>9840064219</t>
-  </si>
-  <si>
-    <t>9840009933</t>
-  </si>
-  <si>
-    <t>9840061523</t>
-  </si>
-  <si>
-    <t>9840066966</t>
-  </si>
-  <si>
-    <t>9840002096</t>
-  </si>
-  <si>
-    <t>9840015635</t>
-  </si>
-  <si>
-    <t>9840016305</t>
-  </si>
-  <si>
-    <t>9840063253</t>
-  </si>
-  <si>
-    <t>9840033542</t>
-  </si>
-  <si>
-    <t>9840043851</t>
-  </si>
-  <si>
-    <t>9840016776</t>
-  </si>
-  <si>
-    <t>9840022329</t>
-  </si>
-  <si>
-    <t>9840016150</t>
-  </si>
-  <si>
-    <t>9840048597</t>
-  </si>
-  <si>
-    <t>9840040875</t>
-  </si>
-  <si>
-    <t>9840088141</t>
-  </si>
-  <si>
-    <t>9840058110</t>
-  </si>
-  <si>
-    <t>9840012236</t>
-  </si>
-  <si>
-    <t>9840030817</t>
-  </si>
-  <si>
-    <t>9840024594</t>
-  </si>
-  <si>
-    <t>9840056881</t>
-  </si>
-  <si>
-    <t>9840010581</t>
-  </si>
-  <si>
-    <t>9840019226</t>
+    <t>9840088731</t>
   </si>
 </sst>
 </file>
@@ -791,59 +731,59 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:O18"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="BB2" sqref="BB2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="52.1796875"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.36328125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="26.08984375"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="27.7265625"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.81640625"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="24.54296875"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="18.7265625"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="23.453125"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="29.54296875"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="52.140625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.42578125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="26.140625"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.7109375"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="10.85546875"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="24.5703125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="18.7109375"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="23.42578125"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="29.5703125"/>
     <col min="11" max="11" bestFit="true" customWidth="true" width="20.0"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="9.08984375"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="15.90625"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="14.26953125"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.54296875"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="19" max="19" customWidth="true" width="10.54296875"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="22" max="22" customWidth="true" width="10.54296875"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="25" max="25" customWidth="true" width="10.54296875"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="10.54296875"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="10.54296875"/>
-    <col min="32" max="33" customWidth="true" width="9.6328125"/>
-    <col min="34" max="35" customWidth="true" width="15.26953125"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="11.453125"/>
-    <col min="37" max="37" customWidth="true" width="17.81640625"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="27.36328125"/>
-    <col min="39" max="40" bestFit="true" customWidth="true" width="13.90625"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" width="15.26953125"/>
-    <col min="42" max="43" customWidth="true" width="15.26953125"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" width="11.453125"/>
-    <col min="45" max="46" customWidth="true" width="11.453125"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" width="11.453125"/>
-    <col min="48" max="54" customWidth="true" width="11.453125"/>
-    <col min="55" max="55" bestFit="true" customWidth="true" width="11.81640625"/>
-    <col min="57" max="57" bestFit="true" customWidth="true" width="10.7265625"/>
-    <col min="58" max="58" bestFit="true" customWidth="true" width="10.6328125"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.140625"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="15.85546875"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="14.28515625"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="10.5703125"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="19" max="19" customWidth="true" width="10.5703125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="22" max="22" customWidth="true" width="10.5703125"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="25" max="25" customWidth="true" width="10.5703125"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="10.5703125"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="10.5703125"/>
+    <col min="32" max="33" customWidth="true" width="9.5703125"/>
+    <col min="34" max="35" customWidth="true" width="15.28515625"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="11.42578125"/>
+    <col min="37" max="37" customWidth="true" width="17.85546875"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="27.42578125"/>
+    <col min="39" max="40" bestFit="true" customWidth="true" width="13.85546875"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" width="15.28515625"/>
+    <col min="42" max="43" customWidth="true" width="15.28515625"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" width="11.42578125"/>
+    <col min="45" max="46" customWidth="true" width="11.42578125"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="11.42578125"/>
+    <col min="48" max="54" customWidth="true" width="11.42578125"/>
+    <col min="55" max="55" bestFit="true" customWidth="true" width="11.85546875"/>
+    <col min="57" max="57" bestFit="true" customWidth="true" width="10.7109375"/>
+    <col min="58" max="58" bestFit="true" customWidth="true" width="10.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
@@ -1022,7 +962,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1039,7 +979,7 @@
         <v>16</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
@@ -1066,7 +1006,7 @@
         <v>51</v>
       </c>
       <c r="O2" t="s" s="0">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="P2" s="7" t="s">
         <v>67</v>
@@ -1144,7 +1084,7 @@
         <v>0</v>
       </c>
       <c r="AO2" t="s" s="0">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="AP2" s="8" t="s">
         <v>76</v>
@@ -1195,7 +1135,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="3" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -1212,7 +1152,7 @@
         <v>16</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>11</v>
@@ -1242,7 +1182,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -1259,7 +1199,7 @@
         <v>16</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>11</v>
@@ -1286,10 +1226,10 @@
         <v>51</v>
       </c>
       <c r="O4" t="s" s="0">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -1306,7 +1246,7 @@
         <v>16</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>11</v>
@@ -1333,11 +1273,11 @@
         <v>45</v>
       </c>
       <c r="O5" t="s" s="0">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="AE5" s="4"/>
     </row>
-    <row r="6" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -1354,7 +1294,7 @@
         <v>16</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>11</v>
@@ -1381,10 +1321,10 @@
         <v>52</v>
       </c>
       <c r="O6" t="s" s="0">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -1401,7 +1341,7 @@
         <v>16</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>11</v>
@@ -1431,7 +1371,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -1448,7 +1388,7 @@
         <v>16</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>11</v>
@@ -1475,10 +1415,10 @@
         <v>52</v>
       </c>
       <c r="O8" t="s" s="0">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -1495,7 +1435,7 @@
         <v>16</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>11</v>
@@ -1522,10 +1462,10 @@
         <v>45</v>
       </c>
       <c r="O9" t="s" s="0">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -1542,7 +1482,7 @@
         <v>16</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>11</v>
@@ -1569,10 +1509,10 @@
         <v>52</v>
       </c>
       <c r="O10" t="s" s="0">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -1589,7 +1529,7 @@
         <v>16</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>11</v>
@@ -1616,10 +1556,10 @@
         <v>50</v>
       </c>
       <c r="O11" t="s" s="0">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -1636,7 +1576,7 @@
         <v>16</v>
       </c>
       <c r="F12" t="s" s="0">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>11</v>
@@ -1663,10 +1603,10 @@
         <v>51</v>
       </c>
       <c r="O12" t="s" s="0">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
@@ -1683,7 +1623,7 @@
         <v>16</v>
       </c>
       <c r="F13" t="s" s="0">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>11</v>
@@ -1710,10 +1650,10 @@
         <v>45</v>
       </c>
       <c r="O13" t="s" s="0">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
@@ -1730,7 +1670,7 @@
         <v>16</v>
       </c>
       <c r="F14" t="s" s="0">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>11</v>
@@ -1757,10 +1697,10 @@
         <v>52</v>
       </c>
       <c r="O14" t="s" s="0">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
@@ -1777,7 +1717,7 @@
         <v>16</v>
       </c>
       <c r="F15" t="s" s="0">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>11</v>
@@ -1804,10 +1744,10 @@
         <v>45</v>
       </c>
       <c r="O15" t="s" s="0">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
@@ -1824,7 +1764,7 @@
         <v>16</v>
       </c>
       <c r="F16" t="s" s="0">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>11</v>
@@ -1851,10 +1791,10 @@
         <v>51</v>
       </c>
       <c r="O16" t="s" s="0">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
@@ -1871,7 +1811,7 @@
         <v>16</v>
       </c>
       <c r="F17" t="s" s="0">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>11</v>
@@ -1898,10 +1838,10 @@
         <v>45</v>
       </c>
       <c r="O17" t="s" s="0">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -1918,7 +1858,7 @@
         <v>16</v>
       </c>
       <c r="F18" t="s" s="0">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>11</v>
@@ -1945,7 +1885,7 @@
         <v>52</v>
       </c>
       <c r="O18" t="s" s="0">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
